--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icosl-Cd28.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icosl-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.768037440685907</v>
+        <v>0.7779683333333334</v>
       </c>
       <c r="H2">
-        <v>0.768037440685907</v>
+        <v>2.333905</v>
       </c>
       <c r="I2">
-        <v>0.04168560510696544</v>
+        <v>0.03257389909260204</v>
       </c>
       <c r="J2">
-        <v>0.04168560510696544</v>
+        <v>0.03376044640127995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.23022955461977</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="N2">
-        <v>3.23022955461977</v>
+        <v>10.421894</v>
       </c>
       <c r="O2">
-        <v>0.5917442108123033</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="P2">
-        <v>0.5917442108123033</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="Q2">
-        <v>2.480937239958145</v>
+        <v>2.702634501785556</v>
       </c>
       <c r="R2">
-        <v>2.480937239958145</v>
+        <v>24.32371051607</v>
       </c>
       <c r="S2">
-        <v>0.02466721549625459</v>
+        <v>0.01775092617030495</v>
       </c>
       <c r="T2">
-        <v>0.02466721549625459</v>
+        <v>0.01844225103417313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,57 +596,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.768037440685907</v>
+        <v>0.7779683333333334</v>
       </c>
       <c r="H3">
-        <v>0.768037440685907</v>
+        <v>2.333905</v>
       </c>
       <c r="I3">
-        <v>0.04168560510696544</v>
+        <v>0.03257389909260204</v>
       </c>
       <c r="J3">
-        <v>0.04168560510696544</v>
+        <v>0.03376044640127995</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.22859791778684</v>
+        <v>2.854567333333333</v>
       </c>
       <c r="N3">
-        <v>2.22859791778684</v>
+        <v>8.563701999999999</v>
       </c>
       <c r="O3">
-        <v>0.4082557891876967</v>
+        <v>0.4477815193550676</v>
       </c>
       <c r="P3">
-        <v>0.4082557891876967</v>
+        <v>0.4488700649961731</v>
       </c>
       <c r="Q3">
-        <v>1.711646641094946</v>
+        <v>2.220762990701111</v>
       </c>
       <c r="R3">
-        <v>1.711646641094946</v>
+        <v>19.98686691631</v>
       </c>
       <c r="S3">
-        <v>0.01701838961071085</v>
+        <v>0.014585990027004</v>
       </c>
       <c r="T3">
-        <v>0.01701838961071085</v>
+        <v>0.01515405377044235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.923004728553204</v>
+        <v>0.7779683333333334</v>
       </c>
       <c r="H4">
-        <v>0.923004728553204</v>
+        <v>2.333905</v>
       </c>
       <c r="I4">
-        <v>0.05009652991912626</v>
+        <v>0.03257389909260204</v>
       </c>
       <c r="J4">
-        <v>0.05009652991912626</v>
+        <v>0.03376044640127995</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>3.23022955461977</v>
+        <v>0.046379</v>
       </c>
       <c r="N4">
-        <v>3.23022955461977</v>
+        <v>0.09275799999999999</v>
       </c>
       <c r="O4">
-        <v>0.5917442108123033</v>
+        <v>0.007275238822941998</v>
       </c>
       <c r="P4">
-        <v>0.5917442108123033</v>
+        <v>0.004861949830682458</v>
       </c>
       <c r="Q4">
-        <v>2.981517153226358</v>
+        <v>0.03608139333166666</v>
       </c>
       <c r="R4">
-        <v>2.981517153226358</v>
+        <v>0.21648835999</v>
       </c>
       <c r="S4">
-        <v>0.02964433156142831</v>
+        <v>0.0002369828952930935</v>
       </c>
       <c r="T4">
-        <v>0.02964433156142831</v>
+        <v>0.0001641415966644673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.923004728553204</v>
+        <v>0.9308339999999999</v>
       </c>
       <c r="H5">
-        <v>0.923004728553204</v>
+        <v>2.792502</v>
       </c>
       <c r="I5">
-        <v>0.05009652991912626</v>
+        <v>0.03897445627130897</v>
       </c>
       <c r="J5">
-        <v>0.05009652991912626</v>
+        <v>0.04039415233116475</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.22859791778684</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="N5">
-        <v>2.22859791778684</v>
+        <v>10.421894</v>
       </c>
       <c r="O5">
-        <v>0.4082557891876967</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="P5">
-        <v>0.4082557891876967</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="Q5">
-        <v>2.057006416161078</v>
+        <v>3.233684426532</v>
       </c>
       <c r="R5">
-        <v>2.057006416161078</v>
+        <v>29.103159838788</v>
       </c>
       <c r="S5">
-        <v>0.02045219835769795</v>
+        <v>0.02123886654873652</v>
       </c>
       <c r="T5">
-        <v>0.02045219835769795</v>
+        <v>0.02206603220672244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.13905485027763</v>
+        <v>0.9308339999999999</v>
       </c>
       <c r="H6">
-        <v>7.13905485027763</v>
+        <v>2.792502</v>
       </c>
       <c r="I6">
-        <v>0.3874756692328272</v>
+        <v>0.03897445627130897</v>
       </c>
       <c r="J6">
-        <v>0.3874756692328272</v>
+        <v>0.04039415233116475</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.23022955461977</v>
+        <v>2.854567333333333</v>
       </c>
       <c r="N6">
-        <v>3.23022955461977</v>
+        <v>8.563701999999999</v>
       </c>
       <c r="O6">
-        <v>0.5917442108123033</v>
+        <v>0.4477815193550676</v>
       </c>
       <c r="P6">
-        <v>0.5917442108123033</v>
+        <v>0.4488700649961731</v>
       </c>
       <c r="Q6">
-        <v>23.06078596941842</v>
+        <v>2.657128329156</v>
       </c>
       <c r="R6">
-        <v>23.06078596941842</v>
+        <v>23.91415496240399</v>
       </c>
       <c r="S6">
-        <v>0.2292864840991484</v>
+        <v>0.01745204124520438</v>
       </c>
       <c r="T6">
-        <v>0.2292864840991484</v>
+        <v>0.01813172578235524</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.13905485027763</v>
+        <v>0.9308339999999999</v>
       </c>
       <c r="H7">
-        <v>7.13905485027763</v>
+        <v>2.792502</v>
       </c>
       <c r="I7">
-        <v>0.3874756692328272</v>
+        <v>0.03897445627130897</v>
       </c>
       <c r="J7">
-        <v>0.3874756692328272</v>
+        <v>0.04039415233116475</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>2.22859791778684</v>
+        <v>0.046379</v>
       </c>
       <c r="N7">
-        <v>2.22859791778684</v>
+        <v>0.09275799999999999</v>
       </c>
       <c r="O7">
-        <v>0.4082557891876967</v>
+        <v>0.007275238822941998</v>
       </c>
       <c r="P7">
-        <v>0.4082557891876967</v>
+        <v>0.004861949830682458</v>
       </c>
       <c r="Q7">
-        <v>15.91008277429477</v>
+        <v>0.043171150086</v>
       </c>
       <c r="R7">
-        <v>15.91008277429477</v>
+        <v>0.259026900516</v>
       </c>
       <c r="S7">
-        <v>0.1581891851336788</v>
+        <v>0.0002835484773680823</v>
       </c>
       <c r="T7">
-        <v>0.1581891851336788</v>
+        <v>0.0001963943420870679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.09281877950061</v>
+        <v>11.921496</v>
       </c>
       <c r="H8">
-        <v>7.09281877950061</v>
+        <v>35.764488</v>
       </c>
       <c r="I8">
-        <v>0.384966184035872</v>
+        <v>0.4991586303686639</v>
       </c>
       <c r="J8">
-        <v>0.384966184035872</v>
+        <v>0.5173411429313618</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.23022955461977</v>
+        <v>3.473964666666667</v>
       </c>
       <c r="N8">
-        <v>3.23022955461977</v>
+        <v>10.421894</v>
       </c>
       <c r="O8">
-        <v>0.5917442108123033</v>
+        <v>0.5449432418219904</v>
       </c>
       <c r="P8">
-        <v>0.5917442108123033</v>
+        <v>0.5462679851731443</v>
       </c>
       <c r="Q8">
-        <v>22.911432847105</v>
+        <v>41.414855877808</v>
       </c>
       <c r="R8">
-        <v>22.911432847105</v>
+        <v>372.733702900272</v>
       </c>
       <c r="S8">
-        <v>0.227801510761731</v>
+        <v>0.2720131222165243</v>
       </c>
       <c r="T8">
-        <v>0.227801510761731</v>
+        <v>0.2826069037962867</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.09281877950061</v>
+        <v>11.921496</v>
       </c>
       <c r="H9">
-        <v>7.09281877950061</v>
+        <v>35.764488</v>
       </c>
       <c r="I9">
-        <v>0.384966184035872</v>
+        <v>0.4991586303686639</v>
       </c>
       <c r="J9">
-        <v>0.384966184035872</v>
+        <v>0.5173411429313618</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.22859791778684</v>
+        <v>2.854567333333333</v>
       </c>
       <c r="N9">
-        <v>2.22859791778684</v>
+        <v>8.563701999999999</v>
       </c>
       <c r="O9">
-        <v>0.4082557891876967</v>
+        <v>0.4477815193550676</v>
       </c>
       <c r="P9">
-        <v>0.4082557891876967</v>
+        <v>0.4488700649961731</v>
       </c>
       <c r="Q9">
-        <v>15.80704116323446</v>
+        <v>34.03071304606399</v>
       </c>
       <c r="R9">
-        <v>15.80704116323446</v>
+        <v>306.276417414576</v>
       </c>
       <c r="S9">
-        <v>0.157164673274141</v>
+        <v>0.2235140099056749</v>
       </c>
       <c r="T9">
-        <v>0.157164673274141</v>
+        <v>0.2322189524527948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.50160841539958</v>
+        <v>11.921496</v>
       </c>
       <c r="H10">
-        <v>2.50160841539958</v>
+        <v>35.764488</v>
       </c>
       <c r="I10">
-        <v>0.135776011705209</v>
+        <v>0.4991586303686639</v>
       </c>
       <c r="J10">
-        <v>0.135776011705209</v>
+        <v>0.5173411429313618</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>3.23022955461977</v>
+        <v>0.046379</v>
       </c>
       <c r="N10">
-        <v>3.23022955461977</v>
+        <v>0.09275799999999999</v>
       </c>
       <c r="O10">
-        <v>0.5917442108123033</v>
+        <v>0.007275238822941998</v>
       </c>
       <c r="P10">
-        <v>0.5917442108123033</v>
+        <v>0.004861949830682458</v>
       </c>
       <c r="Q10">
-        <v>8.080769437509254</v>
+        <v>0.5529070629839999</v>
       </c>
       <c r="R10">
-        <v>8.080769437509254</v>
+        <v>3.317442377904</v>
       </c>
       <c r="S10">
-        <v>0.08034466889374096</v>
+        <v>0.003631498246464658</v>
       </c>
       <c r="T10">
-        <v>0.08034466889374096</v>
+        <v>0.002515286682280204</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.734682333333333</v>
+      </c>
+      <c r="H11">
+        <v>23.204047</v>
+      </c>
+      <c r="I11">
+        <v>0.3238547779442587</v>
+      </c>
+      <c r="J11">
+        <v>0.3356516160838941</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.473964666666667</v>
+      </c>
+      <c r="N11">
+        <v>10.421894</v>
+      </c>
+      <c r="O11">
+        <v>0.5449432418219904</v>
+      </c>
+      <c r="P11">
+        <v>0.5462679851731443</v>
+      </c>
+      <c r="Q11">
+        <v>26.87001313389089</v>
+      </c>
+      <c r="R11">
+        <v>241.830118205018</v>
+      </c>
+      <c r="S11">
+        <v>0.1764824725724851</v>
+      </c>
+      <c r="T11">
+        <v>0.1833557320382586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.50160841539958</v>
-      </c>
-      <c r="H11">
-        <v>2.50160841539958</v>
-      </c>
-      <c r="I11">
-        <v>0.135776011705209</v>
-      </c>
-      <c r="J11">
-        <v>0.135776011705209</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.22859791778684</v>
-      </c>
-      <c r="N11">
-        <v>2.22859791778684</v>
-      </c>
-      <c r="O11">
-        <v>0.4082557891876967</v>
-      </c>
-      <c r="P11">
-        <v>0.4082557891876967</v>
-      </c>
-      <c r="Q11">
-        <v>5.575079305677541</v>
-      </c>
-      <c r="R11">
-        <v>5.575079305677541</v>
-      </c>
-      <c r="S11">
-        <v>0.05543134281146804</v>
-      </c>
-      <c r="T11">
-        <v>0.05543134281146804</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.734682333333333</v>
+      </c>
+      <c r="H12">
+        <v>23.204047</v>
+      </c>
+      <c r="I12">
+        <v>0.3238547779442587</v>
+      </c>
+      <c r="J12">
+        <v>0.3356516160838941</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="N12">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="P12">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="Q12">
+        <v>22.07917152244378</v>
+      </c>
+      <c r="R12">
+        <v>198.712543701994</v>
+      </c>
+      <c r="S12">
+        <v>0.1450161845182782</v>
+      </c>
+      <c r="T12">
+        <v>0.1506639627276481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.734682333333333</v>
+      </c>
+      <c r="H13">
+        <v>23.204047</v>
+      </c>
+      <c r="I13">
+        <v>0.3238547779442587</v>
+      </c>
+      <c r="J13">
+        <v>0.3356516160838941</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.046379</v>
+      </c>
+      <c r="N13">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="P13">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="Q13">
+        <v>0.3587268319376666</v>
+      </c>
+      <c r="R13">
+        <v>2.152360991626</v>
+      </c>
+      <c r="S13">
+        <v>0.002356120853495331</v>
+      </c>
+      <c r="T13">
+        <v>0.001631921317987382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.5182005</v>
+      </c>
+      <c r="H14">
+        <v>5.036401</v>
+      </c>
+      <c r="I14">
+        <v>0.1054382363231665</v>
+      </c>
+      <c r="J14">
+        <v>0.07285264225229936</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.473964666666667</v>
+      </c>
+      <c r="N14">
+        <v>10.421894</v>
+      </c>
+      <c r="O14">
+        <v>0.5449432418219904</v>
+      </c>
+      <c r="P14">
+        <v>0.5462679851731443</v>
+      </c>
+      <c r="Q14">
+        <v>8.748139560582333</v>
+      </c>
+      <c r="R14">
+        <v>52.488837363494</v>
+      </c>
+      <c r="S14">
+        <v>0.05745785431393952</v>
+      </c>
+      <c r="T14">
+        <v>0.03979706609770346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.5182005</v>
+      </c>
+      <c r="H15">
+        <v>5.036401</v>
+      </c>
+      <c r="I15">
+        <v>0.1054382363231665</v>
+      </c>
+      <c r="J15">
+        <v>0.07285264225229936</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.854567333333333</v>
+      </c>
+      <c r="N15">
+        <v>8.563701999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.4477815193550676</v>
+      </c>
+      <c r="P15">
+        <v>0.4488700649961731</v>
+      </c>
+      <c r="Q15">
+        <v>7.188372886083666</v>
+      </c>
+      <c r="R15">
+        <v>43.13023731650199</v>
+      </c>
+      <c r="S15">
+        <v>0.04721329365890619</v>
+      </c>
+      <c r="T15">
+        <v>0.03270137026293256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.5182005</v>
+      </c>
+      <c r="H16">
+        <v>5.036401</v>
+      </c>
+      <c r="I16">
+        <v>0.1054382363231665</v>
+      </c>
+      <c r="J16">
+        <v>0.07285264225229936</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.046379</v>
+      </c>
+      <c r="N16">
+        <v>0.09275799999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.007275238822941998</v>
+      </c>
+      <c r="P16">
+        <v>0.004861949830682458</v>
+      </c>
+      <c r="Q16">
+        <v>0.1167916209895</v>
+      </c>
+      <c r="R16">
+        <v>0.4671664839579999</v>
+      </c>
+      <c r="S16">
+        <v>0.0007670883503208344</v>
+      </c>
+      <c r="T16">
+        <v>0.0003542058916633365</v>
       </c>
     </row>
   </sheetData>
